--- a/hebrewOutputs/hebrew82Comperation_5_Common_alpha=0.16.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_5_Common_alpha=0.16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="159">
   <si>
     <t>Sentence</t>
   </si>
@@ -112,6 +112,9 @@
     <t>ושחררו אותנו לדרכנו בבקשה</t>
   </si>
   <si>
+    <t>disagree</t>
+  </si>
+  <si>
     <t>יעל קודם כל לי קוראים דוק</t>
   </si>
   <si>
@@ -157,6 +160,9 @@
     <t>אני יודעת פשוט אתה יודע</t>
   </si>
   <si>
+    <t>concern</t>
+  </si>
+  <si>
     <t xml:space="preserve">תנו את מה שצריך אנטיביוטקיה </t>
   </si>
   <si>
@@ -302,9 +308,6 @@
   </si>
   <si>
     <t>אני בשוק אני לא מבינה איך כאלו מאיפה זה בא</t>
-  </si>
-  <si>
-    <t>concern</t>
   </si>
   <si>
     <t xml:space="preserve">איך פתאום - סכרת - כי מה? </t>
@@ -875,7 +878,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -931,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -1071,7 +1074,7 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -1079,13 +1082,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -1093,7 +1096,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -1121,7 +1124,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -1135,10 +1138,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -1149,7 +1152,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -1163,10 +1166,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -1177,7 +1180,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
@@ -1191,10 +1194,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1205,7 +1208,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
@@ -1219,7 +1222,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -1233,7 +1236,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
@@ -1247,7 +1250,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -1261,13 +1264,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -1275,7 +1278,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
         <v>30</v>
@@ -1289,7 +1292,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
@@ -1303,7 +1306,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
         <v>30</v>
@@ -1317,13 +1320,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -1331,10 +1334,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
         <v>22</v>
@@ -1345,10 +1348,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
@@ -1359,7 +1362,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
         <v>23</v>
@@ -1373,10 +1376,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -1387,7 +1390,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
@@ -1401,7 +1404,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
         <v>23</v>
@@ -1415,7 +1418,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
         <v>23</v>
@@ -1429,13 +1432,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
         <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
@@ -1443,10 +1446,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -1457,7 +1460,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
@@ -1471,7 +1474,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
         <v>23</v>
@@ -1485,10 +1488,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
@@ -1499,7 +1502,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
         <v>23</v>
@@ -1513,7 +1516,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
         <v>22</v>
@@ -1527,10 +1530,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -1541,10 +1544,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
@@ -1555,7 +1558,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
         <v>23</v>
@@ -1569,10 +1572,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C54" t="s">
         <v>23</v>
@@ -1583,10 +1586,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -1597,10 +1600,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C56" t="s">
         <v>23</v>
@@ -1611,7 +1614,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B57" t="s">
         <v>23</v>
@@ -1625,10 +1628,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
@@ -1639,7 +1642,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s">
         <v>23</v>
@@ -1653,10 +1656,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
@@ -1667,10 +1670,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
@@ -1681,10 +1684,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
@@ -1695,7 +1698,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B63" t="s">
         <v>12</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
@@ -1723,7 +1726,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B65" t="s">
         <v>23</v>
@@ -1737,7 +1740,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B66" t="s">
         <v>23</v>
@@ -1751,7 +1754,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
@@ -1765,13 +1768,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s">
         <v>23</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D68" t="s">
         <v>9</v>
@@ -1779,7 +1782,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B69" t="s">
         <v>14</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
@@ -1807,7 +1810,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B71" t="s">
         <v>22</v>
@@ -1821,7 +1824,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B72" t="s">
         <v>22</v>
@@ -1835,10 +1838,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B73" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
@@ -1849,10 +1852,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B74" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
@@ -1863,7 +1866,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B75" t="s">
         <v>12</v>
@@ -1877,10 +1880,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B76" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
@@ -1891,10 +1894,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B77" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
@@ -1905,7 +1908,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B78" t="s">
         <v>14</v>
@@ -1919,7 +1922,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B79" t="s">
         <v>23</v>
@@ -1933,7 +1936,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B80" t="s">
         <v>14</v>
@@ -1947,13 +1950,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B81" t="s">
         <v>27</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D81" t="s">
         <v>9</v>
@@ -1961,7 +1964,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B82" t="s">
         <v>27</v>
@@ -1975,7 +1978,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B83" t="s">
         <v>14</v>
@@ -1989,7 +1992,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B84" t="s">
         <v>23</v>
@@ -2003,7 +2006,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B85" t="s">
         <v>23</v>
@@ -2017,10 +2020,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B86" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C86" t="s">
         <v>6</v>
@@ -2031,13 +2034,13 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B87" t="s">
         <v>14</v>
       </c>
       <c r="C87" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D87" t="s">
         <v>9</v>
@@ -2045,13 +2048,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B88" t="s">
         <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D88" t="s">
         <v>9</v>
@@ -2059,7 +2062,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B89" t="s">
         <v>12</v>
@@ -2073,7 +2076,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B90" t="s">
         <v>22</v>
@@ -2087,7 +2090,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B91" t="s">
         <v>12</v>
@@ -2101,13 +2104,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B92" t="s">
         <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D92" t="s">
         <v>9</v>
@@ -2115,7 +2118,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B93" t="s">
         <v>23</v>
@@ -2129,13 +2132,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B94" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="D94" t="s">
         <v>9</v>
@@ -2143,10 +2146,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="C95" t="s">
         <v>20</v>
@@ -2157,10 +2160,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
@@ -2171,10 +2174,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B97" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
@@ -2185,13 +2188,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B98" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="D98" t="s">
         <v>9</v>
@@ -2199,10 +2202,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B99" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
@@ -2213,10 +2216,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B100" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C100" t="s">
         <v>6</v>
@@ -2227,10 +2230,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B101" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C101" t="s">
         <v>6</v>
@@ -2241,13 +2244,13 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B102" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
@@ -2255,10 +2258,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B103" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C103" t="s">
         <v>6</v>
@@ -2269,10 +2272,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B104" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C104" t="s">
         <v>6</v>
@@ -2283,7 +2286,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B105" t="s">
         <v>14</v>
@@ -2297,7 +2300,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B106" t="s">
         <v>12</v>
@@ -2311,10 +2314,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B107" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C107" t="s">
         <v>6</v>
@@ -2325,7 +2328,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B108" t="s">
         <v>12</v>
@@ -2339,7 +2342,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B109" t="s">
         <v>23</v>
@@ -2353,7 +2356,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B110" t="s">
         <v>23</v>
@@ -2367,10 +2370,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B111" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C111" t="s">
         <v>6</v>
@@ -2381,7 +2384,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B112" t="s">
         <v>23</v>
@@ -2395,7 +2398,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B113" t="s">
         <v>23</v>
@@ -2409,10 +2412,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B114" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C114" t="s">
         <v>6</v>
@@ -2423,7 +2426,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B115" t="s">
         <v>23</v>
@@ -2437,10 +2440,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B116" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C116" t="s">
         <v>6</v>
@@ -2451,7 +2454,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B117" t="s">
         <v>23</v>
@@ -2465,10 +2468,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B118" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C118" t="s">
         <v>6</v>
@@ -2479,7 +2482,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B119" t="s">
         <v>23</v>
@@ -2493,13 +2496,13 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B120" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D120" t="s">
         <v>9</v>
@@ -2507,7 +2510,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B121" t="s">
         <v>14</v>
@@ -2521,10 +2524,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B122" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C122" t="s">
         <v>6</v>
@@ -2535,10 +2538,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B123" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C123" t="s">
         <v>6</v>
@@ -2549,13 +2552,13 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B124" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C124" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D124" t="s">
         <v>9</v>
@@ -2563,10 +2566,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B125" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C125" t="s">
         <v>6</v>
@@ -2577,7 +2580,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B126" t="s">
         <v>23</v>
@@ -2591,10 +2594,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B127" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C127" t="s">
         <v>6</v>
@@ -2605,10 +2608,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B128" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C128" t="s">
         <v>6</v>
@@ -2619,13 +2622,13 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B129" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="C129" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D129" t="s">
         <v>7</v>
@@ -2633,10 +2636,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B130" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C130" t="s">
         <v>6</v>
@@ -2647,10 +2650,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B131" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C131" t="s">
         <v>6</v>
